--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>1306.904001956695</v>
+        <v>1444.825335672726</v>
       </c>
       <c r="R2">
-        <v>1306.904001956695</v>
+        <v>8668.952014036358</v>
       </c>
       <c r="S2">
-        <v>0.208809684845575</v>
+        <v>0.2049120377410703</v>
       </c>
       <c r="T2">
-        <v>0.208809684845575</v>
+        <v>0.1623947082123204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>316.9088794589744</v>
+        <v>367.8620000336289</v>
       </c>
       <c r="R3">
-        <v>316.9088794589744</v>
+        <v>3310.75800030266</v>
       </c>
       <c r="S3">
-        <v>0.05063389747488544</v>
+        <v>0.05217194782876584</v>
       </c>
       <c r="T3">
-        <v>0.05063389747488544</v>
+        <v>0.06202013560003779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>935.751267910485</v>
+        <v>1104.508549522337</v>
       </c>
       <c r="R4">
-        <v>935.751267910485</v>
+        <v>9940.576945701028</v>
       </c>
       <c r="S4">
-        <v>0.1495090129448621</v>
+        <v>0.1566466838565476</v>
       </c>
       <c r="T4">
-        <v>0.1495090129448621</v>
+        <v>0.1862159451275591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>864.2086667471874</v>
+        <v>956.4672069137566</v>
       </c>
       <c r="R5">
-        <v>864.2086667471874</v>
+        <v>8608.204862223809</v>
       </c>
       <c r="S5">
-        <v>0.138078343224994</v>
+        <v>0.1356507527672554</v>
       </c>
       <c r="T5">
-        <v>0.138078343224994</v>
+        <v>0.1612567372122092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>979.0118536148052</v>
+        <v>1117.294010466171</v>
       </c>
       <c r="R6">
-        <v>979.0118536148052</v>
+        <v>10055.64609419554</v>
       </c>
       <c r="S6">
-        <v>0.1564209431659263</v>
+        <v>0.1584599790630856</v>
       </c>
       <c r="T6">
-        <v>0.1564209431659263</v>
+        <v>0.188371525267321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>235.0156805859096</v>
+        <v>259.471644575355</v>
       </c>
       <c r="R7">
-        <v>235.0156805859096</v>
+        <v>1556.82986745213</v>
       </c>
       <c r="S7">
-        <v>0.03754946815025378</v>
+        <v>0.03679950933391318</v>
       </c>
       <c r="T7">
-        <v>0.03754946815025378</v>
+        <v>0.02916395564905173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>58.79565370984005</v>
+        <v>12.58638895652533</v>
       </c>
       <c r="R8">
-        <v>58.79565370984005</v>
+        <v>75.518333739152</v>
       </c>
       <c r="S8">
-        <v>0.009394034988843867</v>
+        <v>0.00178506186540704</v>
       </c>
       <c r="T8">
-        <v>0.009394034988843867</v>
+        <v>0.001414678239352725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>14.25725585532388</v>
+        <v>3.204577121145778</v>
       </c>
       <c r="R9">
-        <v>14.25725585532388</v>
+        <v>28.841194090312</v>
       </c>
       <c r="S9">
-        <v>0.002277943213469137</v>
+        <v>0.0004544884504580257</v>
       </c>
       <c r="T9">
-        <v>0.002277943213469137</v>
+        <v>0.0005402795275839062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>42.09804807716222</v>
+        <v>9.621768020577335</v>
       </c>
       <c r="R10">
-        <v>42.09804807716222</v>
+        <v>86.595912185196</v>
       </c>
       <c r="S10">
-        <v>0.006726186574105683</v>
+        <v>0.001364605148518081</v>
       </c>
       <c r="T10">
-        <v>0.006726186574105683</v>
+        <v>0.001622193532612123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>38.87945359952604</v>
+        <v>8.332127069721334</v>
       </c>
       <c r="R11">
-        <v>38.87945359952604</v>
+        <v>74.989143627492</v>
       </c>
       <c r="S11">
-        <v>0.006211937863018494</v>
+        <v>0.001181702102267725</v>
       </c>
       <c r="T11">
-        <v>0.006211937863018494</v>
+        <v>0.001404764967986968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>44.04427703701535</v>
+        <v>9.733146732214223</v>
       </c>
       <c r="R12">
-        <v>44.04427703701535</v>
+        <v>87.59832058992801</v>
       </c>
       <c r="S12">
-        <v>0.007037143962816572</v>
+        <v>0.001380401409975431</v>
       </c>
       <c r="T12">
-        <v>0.007037143962816572</v>
+        <v>0.001640971560236738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>10.57300348872096</v>
+        <v>2.260350065286</v>
       </c>
       <c r="R13">
-        <v>10.57300348872096</v>
+        <v>13.562100391716</v>
       </c>
       <c r="S13">
-        <v>0.001689294334584297</v>
+        <v>0.0003205736544412529</v>
       </c>
       <c r="T13">
-        <v>0.001689294334584297</v>
+        <v>0.0002540576222238711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>75.48056906503925</v>
+        <v>59.96927198207865</v>
       </c>
       <c r="R14">
-        <v>75.48056906503925</v>
+        <v>359.815631892472</v>
       </c>
       <c r="S14">
-        <v>0.01205985582325714</v>
+        <v>0.008505128904023952</v>
       </c>
       <c r="T14">
-        <v>0.01205985582325714</v>
+        <v>0.006740394277970285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>18.30315197406514</v>
+        <v>15.26856969297022</v>
       </c>
       <c r="R15">
-        <v>18.30315197406514</v>
+        <v>137.417127236732</v>
       </c>
       <c r="S15">
-        <v>0.002924373473233766</v>
+        <v>0.00216546156267485</v>
       </c>
       <c r="T15">
-        <v>0.002924373473233766</v>
+        <v>0.002574222840875307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>54.04454963751486</v>
+        <v>45.84400063970066</v>
       </c>
       <c r="R16">
-        <v>54.04454963751486</v>
+        <v>412.5960057573059</v>
       </c>
       <c r="S16">
-        <v>0.008634930615052513</v>
+        <v>0.006501815380272282</v>
       </c>
       <c r="T16">
-        <v>0.008634930615052513</v>
+        <v>0.007729124334295285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>49.91258872828676</v>
+        <v>39.69936064738467</v>
       </c>
       <c r="R17">
-        <v>49.91258872828676</v>
+        <v>357.294245826462</v>
       </c>
       <c r="S17">
-        <v>0.007974749412792529</v>
+        <v>0.005630353155099928</v>
       </c>
       <c r="T17">
-        <v>0.007974749412792529</v>
+        <v>0.006693161376713325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>56.54307563648659</v>
+        <v>46.37467709298977</v>
       </c>
       <c r="R18">
-        <v>56.54307563648659</v>
+        <v>417.372093836908</v>
       </c>
       <c r="S18">
-        <v>0.009034130881975447</v>
+        <v>0.006577078452381994</v>
       </c>
       <c r="T18">
-        <v>0.009034130881975447</v>
+        <v>0.007818594368138762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>13.57338969294835</v>
+        <v>10.769693222421</v>
       </c>
       <c r="R19">
-        <v>13.57338969294835</v>
+        <v>64.618159334526</v>
       </c>
       <c r="S19">
-        <v>0.002168678969401945</v>
+        <v>0.001527409389609681</v>
       </c>
       <c r="T19">
-        <v>0.002168678969401945</v>
+        <v>0.001210486240246428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>322.5196690648095</v>
+        <v>92.71155437022666</v>
       </c>
       <c r="R20">
-        <v>322.5196690648095</v>
+        <v>556.26932622136</v>
       </c>
       <c r="S20">
-        <v>0.05153035751141082</v>
+        <v>0.01314879595414877</v>
       </c>
       <c r="T20">
-        <v>0.05153035751141082</v>
+        <v>0.0104205438873021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H21">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I21">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J21">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>78.20723387010857</v>
+        <v>23.60496938612889</v>
       </c>
       <c r="R21">
-        <v>78.20723387010857</v>
+        <v>212.44472447516</v>
       </c>
       <c r="S21">
-        <v>0.01249550681045559</v>
+        <v>0.003347769628828609</v>
       </c>
       <c r="T21">
-        <v>0.01249550681045559</v>
+        <v>0.003979708156940977</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H22">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I22">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J22">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>230.9260579213269</v>
+        <v>70.87410631108668</v>
       </c>
       <c r="R22">
-        <v>230.9260579213269</v>
+        <v>637.8669567997799</v>
       </c>
       <c r="S22">
-        <v>0.03689605151180878</v>
+        <v>0.01005170465156605</v>
       </c>
       <c r="T22">
-        <v>0.03689605151180878</v>
+        <v>0.01194910505445861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H23">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I23">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J23">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>213.2706708258124</v>
+        <v>61.37458921000667</v>
       </c>
       <c r="R23">
-        <v>213.2706708258124</v>
+        <v>552.37130289006</v>
       </c>
       <c r="S23">
-        <v>0.03407517422493737</v>
+        <v>0.008704437713011081</v>
       </c>
       <c r="T23">
-        <v>0.03407517422493737</v>
+        <v>0.01034752256240996</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H24">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I24">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J24">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>241.6019681366278</v>
+        <v>71.69452378867112</v>
       </c>
       <c r="R24">
-        <v>241.6019681366278</v>
+        <v>645.25071409804</v>
       </c>
       <c r="S24">
-        <v>0.03860178769760288</v>
+        <v>0.01016806018117887</v>
       </c>
       <c r="T24">
-        <v>0.03860178769760288</v>
+        <v>0.01208742432419503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.3348755</v>
+      </c>
+      <c r="N25">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P25">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q25">
+        <v>16.64977688973</v>
+      </c>
+      <c r="R25">
+        <v>99.89866133838001</v>
+      </c>
+      <c r="S25">
+        <v>0.002361350971756189</v>
+      </c>
+      <c r="T25">
+        <v>0.00187139275111687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>107.663086</v>
+      </c>
+      <c r="N26">
+        <v>215.326172</v>
+      </c>
+      <c r="O26">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P26">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q26">
+        <v>330.205537833779</v>
+      </c>
+      <c r="R26">
+        <v>1320.822151335116</v>
+      </c>
+      <c r="S26">
+        <v>0.04683132829990213</v>
+      </c>
+      <c r="T26">
+        <v>0.02474284406225065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N27">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O27">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P27">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q27">
+        <v>84.07249414210767</v>
+      </c>
+      <c r="R27">
+        <v>504.434964852646</v>
+      </c>
+      <c r="S27">
+        <v>0.01192356312371293</v>
+      </c>
+      <c r="T27">
+        <v>0.009449535399054056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>82.303927</v>
+      </c>
+      <c r="N28">
+        <v>246.911781</v>
+      </c>
+      <c r="O28">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P28">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q28">
+        <v>252.4283251630655</v>
+      </c>
+      <c r="R28">
+        <v>1514.569950978393</v>
+      </c>
+      <c r="S28">
+        <v>0.03580059209623788</v>
+      </c>
+      <c r="T28">
+        <v>0.02837230438674024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.272429</v>
+      </c>
+      <c r="N29">
+        <v>213.817287</v>
+      </c>
+      <c r="O29">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P29">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q29">
+        <v>218.5944284623685</v>
+      </c>
+      <c r="R29">
+        <v>1311.566570774211</v>
+      </c>
+      <c r="S29">
+        <v>0.03100210708459969</v>
+      </c>
+      <c r="T29">
+        <v>0.02456946009356677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="N25">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="O25">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="P25">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="Q25">
-        <v>57.9975112281584</v>
-      </c>
-      <c r="R25">
-        <v>57.9975112281584</v>
-      </c>
-      <c r="S25">
-        <v>0.009266512324736719</v>
-      </c>
-      <c r="T25">
-        <v>0.009266512324736719</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N30">
+        <v>249.769958</v>
+      </c>
+      <c r="O30">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P30">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q30">
+        <v>255.3503600299623</v>
+      </c>
+      <c r="R30">
+        <v>1532.102160179774</v>
+      </c>
+      <c r="S30">
+        <v>0.03621500905318271</v>
+      </c>
+      <c r="T30">
+        <v>0.02870073370472074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.3348755</v>
+      </c>
+      <c r="N31">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O31">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P31">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q31">
+        <v>59.30057553270075</v>
+      </c>
+      <c r="R31">
+        <v>237.202302130803</v>
+      </c>
+      <c r="S31">
+        <v>0.008410291176106865</v>
+      </c>
+      <c r="T31">
+        <v>0.004443489660509367</v>
       </c>
     </row>
   </sheetData>
